--- a/salidas/CIEE_2013_2020.xlsx
+++ b/salidas/CIEE_2013_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato\GitHub\scn_scae_gt\salidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96209DB9-19A4-41F5-ACDE-17F114A52242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D739107-035C-4A9F-A0FC-F22EFC944067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3804" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{7A45CCBD-7F7D-4E9D-B9DF-5CC6411513E8}"/>
+    <workbookView xWindow="712" yWindow="-98" windowWidth="18586" windowHeight="10996" xr2:uid="{7A45CCBD-7F7D-4E9D-B9DF-5CC6411513E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="2" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <t>Guatemala</t>
   </si>
   <si>
-    <t>Cuentea de Energía</t>
+    <t>Cuenta de Energía</t>
   </si>
 </sst>
 </file>
@@ -307,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,52 +892,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB8DEAE-61F9-44C6-AA36-9D15DF2312E6}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.3828125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.3828125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="16.84375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="5.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="16.86328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B1" s="33" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="33"/>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B2" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="33"/>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="33"/>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B5" s="33" t="s">
         <v>81</v>
       </c>
@@ -945,22 +945,22 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B6" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="33"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -983,7 +983,7 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="35"/>
     </row>
-    <row r="11" spans="2:18" ht="51.45">
+    <row r="11" spans="2:18" ht="52.5" x14ac:dyDescent="0.4">
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
         <v>73</v>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="R11" s="35"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>21113.158502591501</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B13" s="37"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
@@ -1096,7 +1096,7 @@
         <v>8021.6403356793098</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B14" s="37"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B15" s="37"/>
       <c r="C15" s="9" t="s">
         <v>21</v>
@@ -1160,7 +1160,7 @@
         <v>245738.99373997</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B16" s="37"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
@@ -1193,7 +1193,7 @@
         <v>1989.1925654416</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17" s="37"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14" t="s">
@@ -1226,7 +1226,7 @@
         <v>21015.666435217401</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="37"/>
       <c r="C18" s="13"/>
       <c r="D18" s="15"/>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19" s="37"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18" t="s">
@@ -1290,7 +1290,7 @@
         <v>37713.229783867297</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
@@ -1323,7 +1323,7 @@
         <v>44590.339958729448</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B21" s="37"/>
       <c r="C21" s="13"/>
       <c r="D21" s="15"/>
@@ -1354,7 +1354,7 @@
         <v>4253.0696646145152</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B22" s="37"/>
       <c r="C22" s="13"/>
       <c r="D22" s="15" t="s">
@@ -1387,7 +1387,7 @@
         <v>57770.69842527376</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B23" s="37"/>
       <c r="C23" s="13"/>
       <c r="D23" s="10" t="s">
@@ -1420,7 +1420,7 @@
         <v>19655.074343072502</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B24" s="37"/>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
@@ -1453,7 +1453,7 @@
         <v>1345.785375539557</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B25" s="37"/>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
@@ -1486,7 +1486,7 @@
         <v>19110.8258931034</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B26" s="37"/>
       <c r="C26" s="13"/>
       <c r="D26" s="18"/>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B27" s="37"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B28" s="37"/>
       <c r="C28" s="13"/>
       <c r="D28" s="15"/>
@@ -1581,7 +1581,7 @@
         <v>5973.6101341581698</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B29" s="37"/>
       <c r="C29" s="13"/>
       <c r="D29" s="19" t="s">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B30" s="37"/>
       <c r="C30" s="20"/>
       <c r="D30" s="10" t="s">
@@ -1647,7 +1647,7 @@
         <v>38659.988663280987</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B31" s="31"/>
       <c r="C31" s="21" t="s">
         <v>66</v>
@@ -1682,7 +1682,7 @@
         <v>51624.4593951637</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B32" s="23" t="s">
         <v>70</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>578575.73321570316</v>
       </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B33" s="36" t="s">
         <v>71</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>21113.158502591523</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B34" s="37"/>
       <c r="C34" s="8"/>
       <c r="D34" s="5"/>
@@ -1799,7 +1799,7 @@
         <v>8021.6403356793098</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B35" s="37"/>
       <c r="C35" s="8"/>
       <c r="D35" s="5"/>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>21</v>
@@ -1885,7 +1885,7 @@
         <v>245738.99373997014</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B37" s="37"/>
       <c r="C37" s="13"/>
       <c r="D37" s="14" t="s">
@@ -1928,7 +1928,7 @@
         <v>1989.1925654416018</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B38" s="37"/>
       <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
@@ -1971,7 +1971,7 @@
         <v>21015.666435217383</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B39" s="37"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15"/>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B40" s="37"/>
       <c r="C40" s="13"/>
       <c r="D40" s="18" t="s">
@@ -2055,7 +2055,7 @@
         <v>37713.229783867384</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B41" s="37"/>
       <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
@@ -2098,7 +2098,7 @@
         <v>44590.339958729404</v>
       </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B42" s="37"/>
       <c r="C42" s="13"/>
       <c r="D42" s="15"/>
@@ -2139,7 +2139,7 @@
         <v>4253.0696646145188</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B43" s="37"/>
       <c r="C43" s="13"/>
       <c r="D43" s="15" t="s">
@@ -2182,7 +2182,7 @@
         <v>57770.698425273753</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B44" s="37"/>
       <c r="C44" s="13"/>
       <c r="D44" s="10" t="s">
@@ -2225,7 +2225,7 @@
         <v>19655.074343072516</v>
       </c>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B45" s="37"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14" t="s">
@@ -2268,7 +2268,7 @@
         <v>1345.7853755395613</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B46" s="37"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14" t="s">
@@ -2311,7 +2311,7 @@
         <v>19110.825893103396</v>
       </c>
     </row>
-    <row r="47" spans="2:18">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B47" s="37"/>
       <c r="C47" s="13"/>
       <c r="D47" s="18"/>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B48" s="37"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B49" s="37"/>
       <c r="C49" s="13"/>
       <c r="D49" s="15"/>
@@ -2436,7 +2436,7 @@
         <v>5973.6101341581716</v>
       </c>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B50" s="37"/>
       <c r="C50" s="13"/>
       <c r="D50" s="19" t="s">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B51" s="37"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10" t="s">
@@ -2522,7 +2522,7 @@
         <v>38659.988663280994</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B52" s="31"/>
       <c r="C52" s="21" t="s">
         <v>66</v>
@@ -2567,7 +2567,7 @@
         <v>51624.4593951637</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B53" s="31" t="s">
         <v>72</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>578575.73321570328</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B55" s="2" t="s">
         <v>78</v>
       </c>
@@ -2618,52 +2618,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE62E982-B27C-4270-8F0D-1C1D9F8C0329}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.3828125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.3828125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="16.84375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="5.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="16.86328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B1" s="38" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="38"/>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="38"/>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="38" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="38"/>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" s="38" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="38"/>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>81</v>
       </c>
@@ -2671,22 +2671,22 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="38"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -2709,7 +2709,7 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="35"/>
     </row>
-    <row r="11" spans="2:18" ht="51.45">
+    <row r="11" spans="2:18" ht="52.5" x14ac:dyDescent="0.4">
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
         <v>73</v>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="R11" s="35"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>21988.322552301699</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B13" s="37"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
@@ -2822,7 +2822,7 @@
         <v>9315.6312358777504</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B14" s="37"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
@@ -2851,7 +2851,7 @@
         <v>152.71241047888199</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B15" s="37"/>
       <c r="C15" s="9" t="s">
         <v>21</v>
@@ -2886,7 +2886,7 @@
         <v>250947.480071898</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B16" s="37"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
@@ -2919,7 +2919,7 @@
         <v>2044.5630052618801</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17" s="37"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14" t="s">
@@ -2952,7 +2952,7 @@
         <v>21152.410817984601</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="37"/>
       <c r="C18" s="13"/>
       <c r="D18" s="15"/>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19" s="37"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18" t="s">
@@ -3016,7 +3016,7 @@
         <v>43422.699706896798</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
@@ -3049,7 +3049,7 @@
         <v>52550.314674664303</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B21" s="37"/>
       <c r="C21" s="13"/>
       <c r="D21" s="15"/>
@@ -3080,7 +3080,7 @@
         <v>5649.7204666101698</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B22" s="37"/>
       <c r="C22" s="13"/>
       <c r="D22" s="15" t="s">
@@ -3113,7 +3113,7 @@
         <v>65078.887282795877</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B23" s="37"/>
       <c r="C23" s="13"/>
       <c r="D23" s="10" t="s">
@@ -3146,7 +3146,7 @@
         <v>19127.0261830364</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B24" s="37"/>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
@@ -3179,7 +3179,7 @@
         <v>1847.471773462579</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B25" s="37"/>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
@@ -3212,7 +3212,7 @@
         <v>18961.539350388099</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B26" s="37"/>
       <c r="C26" s="13"/>
       <c r="D26" s="18"/>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B27" s="37"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B28" s="37"/>
       <c r="C28" s="13"/>
       <c r="D28" s="15"/>
@@ -3307,7 +3307,7 @@
         <v>7051.7713652501498</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B29" s="37"/>
       <c r="C29" s="13"/>
       <c r="D29" s="19" t="s">
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B30" s="37"/>
       <c r="C30" s="20"/>
       <c r="D30" s="10" t="s">
@@ -3373,7 +3373,7 @@
         <v>42448.185492042496</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B31" s="31"/>
       <c r="C31" s="21" t="s">
         <v>66</v>
@@ -3408,7 +3408,7 @@
         <v>55500.567474672098</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B32" s="27" t="s">
         <v>70</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>617239.30386362178</v>
       </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B33" s="36" t="s">
         <v>71</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>21988.322552301666</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B34" s="37"/>
       <c r="C34" s="8"/>
       <c r="D34" s="5"/>
@@ -3525,7 +3525,7 @@
         <v>9315.6312358777504</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B35" s="37"/>
       <c r="C35" s="8"/>
       <c r="D35" s="5"/>
@@ -3566,7 +3566,7 @@
         <v>152.71241047888162</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>21</v>
@@ -3611,7 +3611,7 @@
         <v>250947.48007189768</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B37" s="37"/>
       <c r="C37" s="13"/>
       <c r="D37" s="14" t="s">
@@ -3654,7 +3654,7 @@
         <v>2044.5630052618822</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B38" s="37"/>
       <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
@@ -3697,7 +3697,7 @@
         <v>21152.41081798459</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B39" s="37"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15"/>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B40" s="37"/>
       <c r="C40" s="13"/>
       <c r="D40" s="18" t="s">
@@ -3781,7 +3781,7 @@
         <v>43422.69970689679</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B41" s="37"/>
       <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
@@ -3824,7 +3824,7 @@
         <v>52550.314674664296</v>
       </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B42" s="37"/>
       <c r="C42" s="13"/>
       <c r="D42" s="15"/>
@@ -3865,7 +3865,7 @@
         <v>5649.7204666101607</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B43" s="37"/>
       <c r="C43" s="13"/>
       <c r="D43" s="15" t="s">
@@ -3908,7 +3908,7 @@
         <v>65078.887282795833</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B44" s="37"/>
       <c r="C44" s="13"/>
       <c r="D44" s="10" t="s">
@@ -3951,7 +3951,7 @@
         <v>19127.026183036367</v>
       </c>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B45" s="37"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14" t="s">
@@ -3994,7 +3994,7 @@
         <v>1847.4717734625774</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B46" s="37"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14" t="s">
@@ -4037,7 +4037,7 @@
         <v>18961.539350388102</v>
       </c>
     </row>
-    <row r="47" spans="2:18">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B47" s="37"/>
       <c r="C47" s="13"/>
       <c r="D47" s="18"/>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B48" s="37"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B49" s="37"/>
       <c r="C49" s="13"/>
       <c r="D49" s="15"/>
@@ -4162,7 +4162,7 @@
         <v>7051.7713652501479</v>
       </c>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B50" s="37"/>
       <c r="C50" s="13"/>
       <c r="D50" s="19" t="s">
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B51" s="37"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10" t="s">
@@ -4248,7 +4248,7 @@
         <v>42448.185492042452</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B52" s="31"/>
       <c r="C52" s="21" t="s">
         <v>66</v>
@@ -4293,7 +4293,7 @@
         <v>55500.567474672098</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B53" s="32" t="s">
         <v>72</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>617239.30386362132</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B55" s="2" t="s">
         <v>78</v>
       </c>
@@ -4344,52 +4344,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15784741-4614-4986-BEFF-4FDF7A35EBB4}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.3828125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.3828125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="16.84375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="5.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="16.86328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B1" s="38" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="38"/>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="38"/>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="38" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="38"/>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" s="38" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="38"/>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>81</v>
       </c>
@@ -4397,22 +4397,22 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="38"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -4435,7 +4435,7 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="35"/>
     </row>
-    <row r="11" spans="2:18" ht="51.45">
+    <row r="11" spans="2:18" ht="52.5" x14ac:dyDescent="0.4">
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
         <v>73</v>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="R11" s="35"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>17587.534114965401</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B13" s="37"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
@@ -4548,7 +4548,7 @@
         <v>9502.0216684394109</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B14" s="37"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
@@ -4577,7 +4577,7 @@
         <v>1132.3363942010201</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B15" s="37"/>
       <c r="C15" s="9" t="s">
         <v>21</v>
@@ -4612,7 +4612,7 @@
         <v>255744.33827594499</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B16" s="37"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
@@ -4645,7 +4645,7 @@
         <v>2104.7183086896298</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17" s="37"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14" t="s">
@@ -4678,7 +4678,7 @@
         <v>21125.758728094901</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="37"/>
       <c r="C18" s="13"/>
       <c r="D18" s="15"/>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19" s="37"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18" t="s">
@@ -4742,7 +4742,7 @@
         <v>65378.273286000898</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
@@ -4775,7 +4775,7 @@
         <v>64332.280372553498</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B21" s="37"/>
       <c r="C21" s="13"/>
       <c r="D21" s="15"/>
@@ -4806,7 +4806,7 @@
         <v>7550.0899609648532</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B22" s="37"/>
       <c r="C22" s="13"/>
       <c r="D22" s="15" t="s">
@@ -4839,7 +4839,7 @@
         <v>73115.102072858834</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B23" s="37"/>
       <c r="C23" s="13"/>
       <c r="D23" s="10" t="s">
@@ -4872,7 +4872,7 @@
         <v>21871.0881961204</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B24" s="37"/>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
@@ -4905,7 +4905,7 @@
         <v>1457.0970450787308</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B25" s="37"/>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
@@ -4938,7 +4938,7 @@
         <v>23029.437959102601</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B26" s="37"/>
       <c r="C26" s="13"/>
       <c r="D26" s="18"/>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B27" s="37"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B28" s="37"/>
       <c r="C28" s="13"/>
       <c r="D28" s="15"/>
@@ -5033,7 +5033,7 @@
         <v>5698.1471397430296</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B29" s="37"/>
       <c r="C29" s="13"/>
       <c r="D29" s="19" t="s">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B30" s="37"/>
       <c r="C30" s="20"/>
       <c r="D30" s="10" t="s">
@@ -5099,7 +5099,7 @@
         <v>44129.47364619276</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B31" s="31"/>
       <c r="C31" s="21" t="s">
         <v>66</v>
@@ -5134,7 +5134,7 @@
         <v>55200.600815913996</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B32" s="27" t="s">
         <v>70</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>668958.29798486503</v>
       </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B33" s="36" t="s">
         <v>71</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>17587.534114965361</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B34" s="37"/>
       <c r="C34" s="8"/>
       <c r="D34" s="5"/>
@@ -5251,7 +5251,7 @@
         <v>9502.0216684394109</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B35" s="37"/>
       <c r="C35" s="8"/>
       <c r="D35" s="5"/>
@@ -5292,7 +5292,7 @@
         <v>1132.336394201016</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>21</v>
@@ -5337,7 +5337,7 @@
         <v>255744.33827594537</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B37" s="37"/>
       <c r="C37" s="13"/>
       <c r="D37" s="14" t="s">
@@ -5380,7 +5380,7 @@
         <v>2104.7183086896302</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B38" s="37"/>
       <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
@@ -5423,7 +5423,7 @@
         <v>21125.758728094988</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B39" s="37"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15"/>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B40" s="37"/>
       <c r="C40" s="13"/>
       <c r="D40" s="18" t="s">
@@ -5507,7 +5507,7 @@
         <v>65378.273286000869</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B41" s="37"/>
       <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
@@ -5550,7 +5550,7 @@
         <v>64332.280372553527</v>
       </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B42" s="37"/>
       <c r="C42" s="13"/>
       <c r="D42" s="15"/>
@@ -5591,7 +5591,7 @@
         <v>7550.0899609648559</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B43" s="37"/>
       <c r="C43" s="13"/>
       <c r="D43" s="15" t="s">
@@ -5634,7 +5634,7 @@
         <v>73115.102072858834</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B44" s="37"/>
       <c r="C44" s="13"/>
       <c r="D44" s="10" t="s">
@@ -5677,7 +5677,7 @@
         <v>21871.088196120319</v>
       </c>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B45" s="37"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14" t="s">
@@ -5720,7 +5720,7 @@
         <v>1457.0970450787295</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B46" s="37"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14" t="s">
@@ -5763,7 +5763,7 @@
         <v>23029.437959102645</v>
       </c>
     </row>
-    <row r="47" spans="2:18">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B47" s="37"/>
       <c r="C47" s="13"/>
       <c r="D47" s="18"/>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B48" s="37"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B49" s="37"/>
       <c r="C49" s="13"/>
       <c r="D49" s="15"/>
@@ -5888,7 +5888,7 @@
         <v>5698.1471397430314</v>
       </c>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B50" s="37"/>
       <c r="C50" s="13"/>
       <c r="D50" s="19" t="s">
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B51" s="37"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10" t="s">
@@ -5974,7 +5974,7 @@
         <v>44129.473646192702</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B52" s="31"/>
       <c r="C52" s="21" t="s">
         <v>66</v>
@@ -6019,7 +6019,7 @@
         <v>55200.600815914011</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B53" s="32" t="s">
         <v>72</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>668958.29798486538</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B55" s="2" t="s">
         <v>78</v>
       </c>
@@ -6070,52 +6070,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A347FB0-058B-45D9-AC34-762D34EAE6B8}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.3828125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.3828125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="16.84375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="5.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="16.86328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B1" s="38" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="38"/>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="38"/>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="38" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="38"/>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" s="38" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="38"/>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>81</v>
       </c>
@@ -6123,22 +6123,22 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="38"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -6161,7 +6161,7 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="35"/>
     </row>
-    <row r="11" spans="2:18" ht="51.45">
+    <row r="11" spans="2:18" ht="52.5" x14ac:dyDescent="0.4">
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
         <v>73</v>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="R11" s="35"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>18132.479351598198</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B13" s="37"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
@@ -6274,7 +6274,7 @@
         <v>12187.727798431701</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B14" s="37"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
@@ -6303,7 +6303,7 @@
         <v>1666.7717653217901</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B15" s="37"/>
       <c r="C15" s="9" t="s">
         <v>21</v>
@@ -6338,7 +6338,7 @@
         <v>272190.680534821</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B16" s="37"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
@@ -6371,7 +6371,7 @@
         <v>2154.3680368854202</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17" s="37"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14" t="s">
@@ -6404,7 +6404,7 @@
         <v>18941.680930470298</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="37"/>
       <c r="C18" s="13"/>
       <c r="D18" s="15"/>
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19" s="37"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18" t="s">
@@ -6468,7 +6468,7 @@
         <v>59906.001156433798</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
@@ -6501,7 +6501,7 @@
         <v>68436.2376911186</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B21" s="37"/>
       <c r="C21" s="13"/>
       <c r="D21" s="15"/>
@@ -6532,7 +6532,7 @@
         <v>7751.9838967956803</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B22" s="37"/>
       <c r="C22" s="13"/>
       <c r="D22" s="15" t="s">
@@ -6565,7 +6565,7 @@
         <v>74712.48549957943</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B23" s="37"/>
       <c r="C23" s="13"/>
       <c r="D23" s="10" t="s">
@@ -6598,7 +6598,7 @@
         <v>19953.5893629477</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B24" s="37"/>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
@@ -6631,7 +6631,7 @@
         <v>765.76854349638506</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B25" s="37"/>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
@@ -6664,7 +6664,7 @@
         <v>24930.736502342301</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B26" s="37"/>
       <c r="C26" s="13"/>
       <c r="D26" s="18"/>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B27" s="37"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B28" s="37"/>
       <c r="C28" s="13"/>
       <c r="D28" s="15"/>
@@ -6759,7 +6759,7 @@
         <v>6175.9105288762003</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B29" s="37"/>
       <c r="C29" s="13"/>
       <c r="D29" s="19" t="s">
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B30" s="37"/>
       <c r="C30" s="20"/>
       <c r="D30" s="10" t="s">
@@ -6825,7 +6825,7 @@
         <v>47486.359530073278</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B31" s="31"/>
       <c r="C31" s="21" t="s">
         <v>66</v>
@@ -6860,7 +6860,7 @@
         <v>83967.205967931397</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B32" s="27" t="s">
         <v>70</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>719359.98709712317</v>
       </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B33" s="36" t="s">
         <v>71</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>18132.479351598198</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B34" s="37"/>
       <c r="C34" s="8"/>
       <c r="D34" s="5"/>
@@ -6977,7 +6977,7 @@
         <v>12187.727798431701</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B35" s="37"/>
       <c r="C35" s="8"/>
       <c r="D35" s="5"/>
@@ -7018,7 +7018,7 @@
         <v>1666.7717653217912</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>21</v>
@@ -7063,7 +7063,7 @@
         <v>272190.68053482164</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B37" s="37"/>
       <c r="C37" s="13"/>
       <c r="D37" s="14" t="s">
@@ -7106,7 +7106,7 @@
         <v>2154.3680368854257</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B38" s="37"/>
       <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
@@ -7149,7 +7149,7 @@
         <v>18941.68093047032</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B39" s="37"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15"/>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B40" s="37"/>
       <c r="C40" s="13"/>
       <c r="D40" s="18" t="s">
@@ -7233,7 +7233,7 @@
         <v>59906.001156433806</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B41" s="37"/>
       <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
@@ -7276,7 +7276,7 @@
         <v>68436.237691118629</v>
       </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B42" s="37"/>
       <c r="C42" s="13"/>
       <c r="D42" s="15"/>
@@ -7317,7 +7317,7 @@
         <v>7751.9838967956775</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B43" s="37"/>
       <c r="C43" s="13"/>
       <c r="D43" s="15" t="s">
@@ -7360,7 +7360,7 @@
         <v>74712.485499579518</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B44" s="37"/>
       <c r="C44" s="13"/>
       <c r="D44" s="10" t="s">
@@ -7403,7 +7403,7 @@
         <v>19953.589362947707</v>
       </c>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B45" s="37"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14" t="s">
@@ -7446,7 +7446,7 @@
         <v>765.76854349638597</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B46" s="37"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14" t="s">
@@ -7489,7 +7489,7 @@
         <v>24930.736502342315</v>
       </c>
     </row>
-    <row r="47" spans="2:18">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B47" s="37"/>
       <c r="C47" s="13"/>
       <c r="D47" s="18"/>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B48" s="37"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B49" s="37"/>
       <c r="C49" s="13"/>
       <c r="D49" s="15"/>
@@ -7614,7 +7614,7 @@
         <v>6175.910528876203</v>
       </c>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B50" s="37"/>
       <c r="C50" s="13"/>
       <c r="D50" s="19" t="s">
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B51" s="37"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10" t="s">
@@ -7700,7 +7700,7 @@
         <v>47486.359530073249</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B52" s="31"/>
       <c r="C52" s="21" t="s">
         <v>66</v>
@@ -7745,7 +7745,7 @@
         <v>83967.205967931426</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B53" s="32" t="s">
         <v>72</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>719359.98709712399</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B55" s="2" t="s">
         <v>78</v>
       </c>
@@ -7796,52 +7796,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27347EEF-EB30-482E-97BD-D4EC99E0DC91}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.3828125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.3828125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="16.84375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="5.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="16.86328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B1" s="38" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="38"/>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="38"/>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="38" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="38"/>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" s="38" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="38"/>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>81</v>
       </c>
@@ -7849,22 +7849,22 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="38"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -7887,7 +7887,7 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="35"/>
     </row>
-    <row r="11" spans="2:18" ht="51.45">
+    <row r="11" spans="2:18" ht="52.5" x14ac:dyDescent="0.4">
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
         <v>73</v>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="R11" s="35"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>26375.1752563624</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B13" s="37"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
@@ -8000,7 +8000,7 @@
         <v>10809.077318583801</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B14" s="37"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
@@ -8029,7 +8029,7 @@
         <v>1821.98099467922</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B15" s="37"/>
       <c r="C15" s="9" t="s">
         <v>21</v>
@@ -8064,7 +8064,7 @@
         <v>288680.84622006601</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B16" s="37"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
@@ -8097,7 +8097,7 @@
         <v>2260.1010163066499</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17" s="37"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14" t="s">
@@ -8130,7 +8130,7 @@
         <v>20287.988896007799</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="37"/>
       <c r="C18" s="13"/>
       <c r="D18" s="15"/>
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19" s="37"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18" t="s">
@@ -8194,7 +8194,7 @@
         <v>47826.797880885999</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
@@ -8227,7 +8227,7 @@
         <v>70617.238014311501</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B21" s="37"/>
       <c r="C21" s="13"/>
       <c r="D21" s="15"/>
@@ -8258,7 +8258,7 @@
         <v>5853.9950902089004</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B22" s="37"/>
       <c r="C22" s="13"/>
       <c r="D22" s="15" t="s">
@@ -8291,7 +8291,7 @@
         <v>72217.640849907679</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B23" s="37"/>
       <c r="C23" s="13"/>
       <c r="D23" s="10" t="s">
@@ -8324,7 +8324,7 @@
         <v>11626.1758129788</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B24" s="37"/>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
@@ -8357,7 +8357,7 @@
         <v>1774.947894873937</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B25" s="37"/>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
@@ -8390,7 +8390,7 @@
         <v>26324.1936987956</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B26" s="37"/>
       <c r="C26" s="13"/>
       <c r="D26" s="18"/>
@@ -8421,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B27" s="37"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
@@ -8454,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B28" s="37"/>
       <c r="C28" s="13"/>
       <c r="D28" s="15"/>
@@ -8485,7 +8485,7 @@
         <v>9731.6709397109098</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B29" s="37"/>
       <c r="C29" s="13"/>
       <c r="D29" s="19" t="s">
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B30" s="37"/>
       <c r="C30" s="20"/>
       <c r="D30" s="10" t="s">
@@ -8551,7 +8551,7 @@
         <v>49844.053338090016</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B31" s="31"/>
       <c r="C31" s="21" t="s">
         <v>66</v>
@@ -8586,7 +8586,7 @@
         <v>53030.981341562903</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B32" s="27" t="s">
         <v>70</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>699082.86456333217</v>
       </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B33" s="36" t="s">
         <v>71</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>26375.1752563624</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B34" s="37"/>
       <c r="C34" s="8"/>
       <c r="D34" s="5"/>
@@ -8703,7 +8703,7 @@
         <v>10809.077318583801</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B35" s="37"/>
       <c r="C35" s="8"/>
       <c r="D35" s="5"/>
@@ -8744,7 +8744,7 @@
         <v>1821.98099467922</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>21</v>
@@ -8789,7 +8789,7 @@
         <v>288680.84622006619</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B37" s="37"/>
       <c r="C37" s="13"/>
       <c r="D37" s="14" t="s">
@@ -8832,7 +8832,7 @@
         <v>2260.1010163066453</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B38" s="37"/>
       <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
@@ -8875,7 +8875,7 @@
         <v>20287.98889600773</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B39" s="37"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15"/>
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B40" s="37"/>
       <c r="C40" s="13"/>
       <c r="D40" s="18" t="s">
@@ -8959,7 +8959,7 @@
         <v>47826.79788088605</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B41" s="37"/>
       <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
@@ -9002,7 +9002,7 @@
         <v>70617.238014311515</v>
       </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B42" s="37"/>
       <c r="C42" s="13"/>
       <c r="D42" s="15"/>
@@ -9043,7 +9043,7 @@
         <v>5853.9950902089031</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B43" s="37"/>
       <c r="C43" s="13"/>
       <c r="D43" s="15" t="s">
@@ -9086,7 +9086,7 @@
         <v>72217.640849907693</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B44" s="37"/>
       <c r="C44" s="13"/>
       <c r="D44" s="10" t="s">
@@ -9129,7 +9129,7 @@
         <v>11626.17581297878</v>
       </c>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B45" s="37"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14" t="s">
@@ -9172,7 +9172,7 @@
         <v>1774.9478948739397</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B46" s="37"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14" t="s">
@@ -9215,7 +9215,7 @@
         <v>26324.193698795676</v>
       </c>
     </row>
-    <row r="47" spans="2:18">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B47" s="37"/>
       <c r="C47" s="13"/>
       <c r="D47" s="18"/>
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B48" s="37"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B49" s="37"/>
       <c r="C49" s="13"/>
       <c r="D49" s="15"/>
@@ -9340,7 +9340,7 @@
         <v>9731.6709397109444</v>
       </c>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B50" s="37"/>
       <c r="C50" s="13"/>
       <c r="D50" s="19" t="s">
@@ -9383,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B51" s="37"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10" t="s">
@@ -9426,7 +9426,7 @@
         <v>49844.053338090031</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B52" s="31"/>
       <c r="C52" s="21" t="s">
         <v>66</v>
@@ -9471,7 +9471,7 @@
         <v>53030.981341562903</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B53" s="32" t="s">
         <v>72</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>699082.8645633324</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B55" s="2" t="s">
         <v>78</v>
       </c>
@@ -9522,52 +9522,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F224B359-5033-4839-9386-9FAB43549EFC}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.3828125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.3828125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="16.84375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="5.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="16.86328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B1" s="38" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="38"/>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="38"/>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="38" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="38"/>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" s="38" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="38"/>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>81</v>
       </c>
@@ -9575,22 +9575,22 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="38"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -9613,7 +9613,7 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="35"/>
     </row>
-    <row r="11" spans="2:18" ht="51.45">
+    <row r="11" spans="2:18" ht="52.5" x14ac:dyDescent="0.4">
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
         <v>73</v>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="R11" s="35"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>23886.1357180019</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B13" s="37"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
@@ -9726,7 +9726,7 @@
         <v>10703.533718725999</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B14" s="37"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
@@ -9755,7 +9755,7 @@
         <v>2337.7038673738298</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B15" s="37"/>
       <c r="C15" s="9" t="s">
         <v>21</v>
@@ -9790,7 +9790,7 @@
         <v>294529.82344216597</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B16" s="37"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
@@ -9823,7 +9823,7 @@
         <v>2370.2655005470201</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17" s="37"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14" t="s">
@@ -9856,7 +9856,7 @@
         <v>19391.298117468301</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="37"/>
       <c r="C18" s="13"/>
       <c r="D18" s="15"/>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19" s="37"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18" t="s">
@@ -9920,7 +9920,7 @@
         <v>52918.218388304602</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
@@ -9953,7 +9953,7 @@
         <v>71670.477768011202</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B21" s="37"/>
       <c r="C21" s="13"/>
       <c r="D21" s="15"/>
@@ -9984,7 +9984,7 @@
         <v>4179.6213492472498</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B22" s="37"/>
       <c r="C22" s="13"/>
       <c r="D22" s="15" t="s">
@@ -10017,7 +10017,7 @@
         <v>70539.24749078996</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B23" s="37"/>
       <c r="C23" s="13"/>
       <c r="D23" s="10" t="s">
@@ -10050,7 +10050,7 @@
         <v>9935.3181180094198</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B24" s="37"/>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
@@ -10083,7 +10083,7 @@
         <v>3708.462025295215</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B25" s="37"/>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
@@ -10116,7 +10116,7 @@
         <v>24652.075063525801</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B26" s="37"/>
       <c r="C26" s="13"/>
       <c r="D26" s="18"/>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B27" s="37"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
@@ -10180,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B28" s="37"/>
       <c r="C28" s="13"/>
       <c r="D28" s="15"/>
@@ -10211,7 +10211,7 @@
         <v>15760.449717994101</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B29" s="37"/>
       <c r="C29" s="13"/>
       <c r="D29" s="19" t="s">
@@ -10244,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B30" s="37"/>
       <c r="C30" s="20"/>
       <c r="D30" s="10" t="s">
@@ -10277,7 +10277,7 @@
         <v>53797.892372677998</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B31" s="31"/>
       <c r="C31" s="21" t="s">
         <v>66</v>
@@ -10312,7 +10312,7 @@
         <v>50625.802747560803</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B32" s="27" t="s">
         <v>70</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>711006.32540569932</v>
       </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B33" s="36" t="s">
         <v>71</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>23886.1357180019</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B34" s="37"/>
       <c r="C34" s="8"/>
       <c r="D34" s="5"/>
@@ -10429,7 +10429,7 @@
         <v>10703.533718725999</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B35" s="37"/>
       <c r="C35" s="8"/>
       <c r="D35" s="5"/>
@@ -10470,7 +10470,7 @@
         <v>2337.703867373823</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>21</v>
@@ -10515,7 +10515,7 @@
         <v>294529.82344216638</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B37" s="37"/>
       <c r="C37" s="13"/>
       <c r="D37" s="14" t="s">
@@ -10558,7 +10558,7 @@
         <v>2370.2655005470219</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B38" s="37"/>
       <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
@@ -10601,7 +10601,7 @@
         <v>19391.298117468272</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B39" s="37"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15"/>
@@ -10642,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B40" s="37"/>
       <c r="C40" s="13"/>
       <c r="D40" s="18" t="s">
@@ -10685,7 +10685,7 @@
         <v>52918.218388304616</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B41" s="37"/>
       <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
@@ -10728,7 +10728,7 @@
         <v>71670.477768011231</v>
       </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B42" s="37"/>
       <c r="C42" s="13"/>
       <c r="D42" s="15"/>
@@ -10769,7 +10769,7 @@
         <v>4179.6213492472525</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B43" s="37"/>
       <c r="C43" s="13"/>
       <c r="D43" s="15" t="s">
@@ -10812,7 +10812,7 @@
         <v>70539.24749078996</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B44" s="37"/>
       <c r="C44" s="13"/>
       <c r="D44" s="10" t="s">
@@ -10855,7 +10855,7 @@
         <v>9935.3181180094234</v>
       </c>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B45" s="37"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14" t="s">
@@ -10898,7 +10898,7 @@
         <v>3708.4620252952141</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B46" s="37"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14" t="s">
@@ -10941,7 +10941,7 @@
         <v>24652.075063525859</v>
       </c>
     </row>
-    <row r="47" spans="2:18">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B47" s="37"/>
       <c r="C47" s="13"/>
       <c r="D47" s="18"/>
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B48" s="37"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
@@ -11025,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B49" s="37"/>
       <c r="C49" s="13"/>
       <c r="D49" s="15"/>
@@ -11066,7 +11066,7 @@
         <v>15760.449717994081</v>
       </c>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B50" s="37"/>
       <c r="C50" s="13"/>
       <c r="D50" s="19" t="s">
@@ -11109,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B51" s="37"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10" t="s">
@@ -11152,7 +11152,7 @@
         <v>53797.89237267799</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B52" s="31"/>
       <c r="C52" s="21" t="s">
         <v>66</v>
@@ -11197,7 +11197,7 @@
         <v>50625.802747560803</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B53" s="32" t="s">
         <v>72</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>711006.32540569967</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B55" s="2" t="s">
         <v>78</v>
       </c>
@@ -11248,52 +11248,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F04CD40-8ED9-43D4-9EC6-8FF1C1BFE828}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.3828125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.3828125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="16.84375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="5.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="16.86328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B1" s="38" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="38"/>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="38"/>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="38" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="38"/>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" s="38" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="38"/>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>81</v>
       </c>
@@ -11301,22 +11301,22 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="38"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -11339,7 +11339,7 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="35"/>
     </row>
-    <row r="11" spans="2:18" ht="51.45">
+    <row r="11" spans="2:18" ht="52.5" x14ac:dyDescent="0.4">
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
         <v>73</v>
@@ -11388,7 +11388,7 @@
       </c>
       <c r="R11" s="35"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>26375.1927653167</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B13" s="37"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
@@ -11452,7 +11452,7 @@
         <v>10809.055485935</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B14" s="37"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
@@ -11481,7 +11481,7 @@
         <v>1821.95961008164</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B15" s="37"/>
       <c r="C15" s="9" t="s">
         <v>21</v>
@@ -11516,7 +11516,7 @@
         <v>295149.53444806399</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B16" s="37"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
@@ -11549,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17" s="37"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14" t="s">
@@ -11582,7 +11582,7 @@
         <v>20195.700801536899</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="37"/>
       <c r="C18" s="13"/>
       <c r="D18" s="15"/>
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19" s="37"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18" t="s">
@@ -11646,7 +11646,7 @@
         <v>74436.125437224997</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
@@ -11679,7 +11679,7 @@
         <v>82235.234667958604</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B21" s="37"/>
       <c r="C21" s="13"/>
       <c r="D21" s="15"/>
@@ -11710,7 +11710,7 @@
         <v>4724.6348043370799</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B22" s="37"/>
       <c r="C22" s="13"/>
       <c r="D22" s="15" t="s">
@@ -11743,7 +11743,7 @@
         <v>78506.562708877798</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B23" s="37"/>
       <c r="C23" s="13"/>
       <c r="D23" s="10" t="s">
@@ -11776,7 +11776,7 @@
         <v>10832.1538822863</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B24" s="37"/>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
@@ -11809,7 +11809,7 @@
         <v>5664.7459623187115</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B25" s="37"/>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
@@ -11842,7 +11842,7 @@
         <v>26099.508507980001</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B26" s="37"/>
       <c r="C26" s="13"/>
       <c r="D26" s="18"/>
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B27" s="37"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B28" s="37"/>
       <c r="C28" s="13"/>
       <c r="D28" s="15"/>
@@ -11937,7 +11937,7 @@
         <v>15546.8373179068</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B29" s="37"/>
       <c r="C29" s="13"/>
       <c r="D29" s="19" t="s">
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B30" s="37"/>
       <c r="C30" s="20"/>
       <c r="D30" s="10" t="s">
@@ -12003,7 +12003,7 @@
         <v>54771.221673581327</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B31" s="31"/>
       <c r="C31" s="21" t="s">
         <v>66</v>
@@ -12038,7 +12038,7 @@
         <v>53030.972793645698</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B32" s="27" t="s">
         <v>70</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>760199.44086705148</v>
       </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B33" s="36" t="s">
         <v>71</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>26375.19276531666</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B34" s="37"/>
       <c r="C34" s="8"/>
       <c r="D34" s="5"/>
@@ -12155,7 +12155,7 @@
         <v>10809.055485935</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B35" s="37"/>
       <c r="C35" s="8"/>
       <c r="D35" s="5"/>
@@ -12196,7 +12196,7 @@
         <v>1821.9596100816379</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>21</v>
@@ -12241,7 +12241,7 @@
         <v>295149.53444806393</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B37" s="37"/>
       <c r="C37" s="13"/>
       <c r="D37" s="14" t="s">
@@ -12284,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B38" s="37"/>
       <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
@@ -12327,7 +12327,7 @@
         <v>20195.70080153695</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B39" s="37"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15"/>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B40" s="37"/>
       <c r="C40" s="13"/>
       <c r="D40" s="18" t="s">
@@ -12411,7 +12411,7 @@
         <v>74436.125437224997</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B41" s="37"/>
       <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
@@ -12454,7 +12454,7 @@
         <v>82235.234667958575</v>
       </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B42" s="37"/>
       <c r="C42" s="13"/>
       <c r="D42" s="15"/>
@@ -12495,7 +12495,7 @@
         <v>4724.6348043370817</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B43" s="37"/>
       <c r="C43" s="13"/>
       <c r="D43" s="15" t="s">
@@ -12538,7 +12538,7 @@
         <v>78506.562708877842</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B44" s="37"/>
       <c r="C44" s="13"/>
       <c r="D44" s="10" t="s">
@@ -12581,7 +12581,7 @@
         <v>10832.153882286257</v>
       </c>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B45" s="37"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14" t="s">
@@ -12624,7 +12624,7 @@
         <v>5664.7459623187096</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B46" s="37"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14" t="s">
@@ -12667,7 +12667,7 @@
         <v>26099.508507980019</v>
       </c>
     </row>
-    <row r="47" spans="2:18">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B47" s="37"/>
       <c r="C47" s="13"/>
       <c r="D47" s="18"/>
@@ -12708,7 +12708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B48" s="37"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B49" s="37"/>
       <c r="C49" s="13"/>
       <c r="D49" s="15"/>
@@ -12792,7 +12792,7 @@
         <v>15546.83731790682</v>
       </c>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B50" s="37"/>
       <c r="C50" s="13"/>
       <c r="D50" s="19" t="s">
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B51" s="37"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10" t="s">
@@ -12878,7 +12878,7 @@
         <v>54771.22167358132</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B52" s="31"/>
       <c r="C52" s="21" t="s">
         <v>66</v>
@@ -12923,7 +12923,7 @@
         <v>53030.972793645647</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B53" s="32" t="s">
         <v>72</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>760199.44086705148</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B55" s="2" t="s">
         <v>78</v>
       </c>
@@ -12974,52 +12974,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7883A72-4063-4836-A89C-8FE42D8112A7}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.3828125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.3828125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="16.84375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="5.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="16.86328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B1" s="38" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="38"/>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="38"/>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="38" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="38"/>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" s="38" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="38"/>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>81</v>
       </c>
@@ -13027,22 +13027,22 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="38"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -13065,7 +13065,7 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="35"/>
     </row>
-    <row r="11" spans="2:18" ht="51.45">
+    <row r="11" spans="2:18" ht="52.5" x14ac:dyDescent="0.4">
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
         <v>73</v>
@@ -13114,7 +13114,7 @@
       </c>
       <c r="R11" s="35"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>26653.309266322001</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B13" s="37"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
@@ -13178,7 +13178,7 @@
         <v>11725.177584791099</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B14" s="37"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
@@ -13207,7 +13207,7 @@
         <v>2224.7236863451999</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B15" s="37"/>
       <c r="C15" s="9" t="s">
         <v>21</v>
@@ -13242,7 +13242,7 @@
         <v>304046.92533013498</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B16" s="37"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
@@ -13275,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17" s="37"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14" t="s">
@@ -13308,7 +13308,7 @@
         <v>16443.933003033198</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="37"/>
       <c r="C18" s="13"/>
       <c r="D18" s="15"/>
@@ -13339,7 +13339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19" s="37"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18" t="s">
@@ -13372,7 +13372,7 @@
         <v>32241.1899165215</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
@@ -13405,7 +13405,7 @@
         <v>72105.516262594305</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B21" s="37"/>
       <c r="C21" s="13"/>
       <c r="D21" s="15"/>
@@ -13436,7 +13436,7 @@
         <v>2368.3198046396001</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B22" s="37"/>
       <c r="C22" s="13"/>
       <c r="D22" s="15" t="s">
@@ -13469,7 +13469,7 @@
         <v>69387.583749402096</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B23" s="37"/>
       <c r="C23" s="13"/>
       <c r="D23" s="10" t="s">
@@ -13502,7 +13502,7 @@
         <v>8997.6642549718999</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B24" s="37"/>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
@@ -13535,7 +13535,7 @@
         <v>4128.4609829081719</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B25" s="37"/>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
@@ -13568,7 +13568,7 @@
         <v>27253.1264527276</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B26" s="37"/>
       <c r="C26" s="13"/>
       <c r="D26" s="18"/>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B27" s="37"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B28" s="37"/>
       <c r="C28" s="13"/>
       <c r="D28" s="15"/>
@@ -13663,7 +13663,7 @@
         <v>16375.1833855401</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B29" s="37"/>
       <c r="C29" s="13"/>
       <c r="D29" s="19" t="s">
@@ -13696,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B30" s="37"/>
       <c r="C30" s="20"/>
       <c r="D30" s="10" t="s">
@@ -13729,7 +13729,7 @@
         <v>49963.319988707466</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B31" s="31"/>
       <c r="C31" s="21" t="s">
         <v>66</v>
@@ -13764,7 +13764,7 @@
         <v>53302.786205993201</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B32" s="27" t="s">
         <v>70</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>697217.21987463243</v>
       </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B33" s="36" t="s">
         <v>71</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>26653.309266322012</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B34" s="37"/>
       <c r="C34" s="8"/>
       <c r="D34" s="5"/>
@@ -13881,7 +13881,7 @@
         <v>11725.177584791099</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B35" s="37"/>
       <c r="C35" s="8"/>
       <c r="D35" s="5"/>
@@ -13922,7 +13922,7 @@
         <v>2224.7236863451999</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>21</v>
@@ -13967,7 +13967,7 @@
         <v>304046.9253301344</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B37" s="37"/>
       <c r="C37" s="13"/>
       <c r="D37" s="14" t="s">
@@ -14010,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B38" s="37"/>
       <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
@@ -14053,7 +14053,7 @@
         <v>16443.933003033249</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B39" s="37"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15"/>
@@ -14094,7 +14094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B40" s="37"/>
       <c r="C40" s="13"/>
       <c r="D40" s="18" t="s">
@@ -14137,7 +14137,7 @@
         <v>32241.189916521511</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B41" s="37"/>
       <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
@@ -14180,7 +14180,7 @@
         <v>72105.516262594305</v>
       </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B42" s="37"/>
       <c r="C42" s="13"/>
       <c r="D42" s="15"/>
@@ -14221,7 +14221,7 @@
         <v>2368.3198046396024</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B43" s="37"/>
       <c r="C43" s="13"/>
       <c r="D43" s="15" t="s">
@@ -14264,7 +14264,7 @@
         <v>69387.583749402096</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B44" s="37"/>
       <c r="C44" s="13"/>
       <c r="D44" s="10" t="s">
@@ -14307,7 +14307,7 @@
         <v>8997.6642549718999</v>
       </c>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B45" s="37"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14" t="s">
@@ -14350,7 +14350,7 @@
         <v>4128.4609829081774</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B46" s="37"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14" t="s">
@@ -14393,7 +14393,7 @@
         <v>27253.126452727658</v>
       </c>
     </row>
-    <row r="47" spans="2:18">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B47" s="37"/>
       <c r="C47" s="13"/>
       <c r="D47" s="18"/>
@@ -14434,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B48" s="37"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
@@ -14477,7 +14477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B49" s="37"/>
       <c r="C49" s="13"/>
       <c r="D49" s="15"/>
@@ -14518,7 +14518,7 @@
         <v>16375.183385540102</v>
       </c>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B50" s="37"/>
       <c r="C50" s="13"/>
       <c r="D50" s="19" t="s">
@@ -14561,7 +14561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B51" s="37"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10" t="s">
@@ -14604,7 +14604,7 @@
         <v>49963.31998870743</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B52" s="31"/>
       <c r="C52" s="21" t="s">
         <v>66</v>
@@ -14649,7 +14649,7 @@
         <v>53302.786205993136</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B53" s="32" t="s">
         <v>72</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>697217.21987463196</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B55" s="2" t="s">
         <v>78</v>
       </c>

--- a/salidas/CIEE_2013_2020.xlsx
+++ b/salidas/CIEE_2013_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato\GitHub\scn_scae_gt\salidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D739107-035C-4A9F-A0FC-F22EFC944067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5041ADB-EE0E-42F3-B9F4-E1C31F27ED42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="712" yWindow="-98" windowWidth="18586" windowHeight="10996" xr2:uid="{7A45CCBD-7F7D-4E9D-B9DF-5CC6411513E8}"/>
   </bookViews>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB8DEAE-61F9-44C6-AA36-9D15DF2312E6}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -2618,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE62E982-B27C-4270-8F0D-1C1D9F8C0329}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4344,7 +4344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15784741-4614-4986-BEFF-4FDF7A35EBB4}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6070,7 +6070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A347FB0-058B-45D9-AC34-762D34EAE6B8}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -7796,7 +7796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27347EEF-EB30-482E-97BD-D4EC99E0DC91}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9522,7 +9522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F224B359-5033-4839-9386-9FAB43549EFC}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -11248,7 +11248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F04CD40-8ED9-43D4-9EC6-8FF1C1BFE828}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -12974,7 +12974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7883A72-4063-4836-A89C-8FE42D8112A7}">
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
